--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_36.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3507321.524907337</v>
+        <v>3505070.706521443</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836233</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>325.2557485598865</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.390346842435036</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>404.3795358314629</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.1365194952145</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493442</v>
       </c>
       <c r="U7" t="n">
-        <v>86.85904583823142</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599763</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>141.2974503117683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132222</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>74.75769145492418</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>18.93482921065078</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>58.69387841119128</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,7 +1819,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>156.5311943980507</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534537</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604492</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.42081039547426</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
-        <v>84.6947366044282</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>17.15794421524278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>173.6268892744762</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873206</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2716,7 +2716,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>37.38100496017505</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>32.52207646038644</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744759</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>17.19701978440944</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>138.8504880697913</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G34" t="n">
-        <v>49.97741920874012</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H34" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I34" t="n">
-        <v>67.95608738100154</v>
+        <v>35.52782197061714</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.53581964121076</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S34" t="n">
         <v>161.3726923026053</v>
@@ -3241,7 +3241,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U34" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V34" t="n">
         <v>223.7413102949914</v>
@@ -3250,7 +3250,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X34" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y34" t="n">
         <v>190.1883203232582</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.4356471531007</v>
+        <v>26.03456888002414</v>
       </c>
       <c r="C37" t="n">
-        <v>138.8504880697913</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D37" t="n">
-        <v>120.2191399893758</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F37" t="n">
-        <v>117.0247149940947</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I37" t="n">
-        <v>57.58415313296653</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>60.53581964121069</v>
       </c>
       <c r="S37" t="n">
         <v>161.3726923026053</v>
@@ -3478,7 +3478,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U37" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V37" t="n">
         <v>223.7413102949914</v>
@@ -3487,7 +3487,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X37" t="n">
-        <v>197.3133223602006</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>190.1883203232582</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D40" t="n">
-        <v>120.2191399893758</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F40" t="n">
-        <v>117.0247149940947</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>116.2545588574947</v>
       </c>
       <c r="H40" t="n">
-        <v>78.39701158502493</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S40" t="n">
         <v>161.3726923026053</v>
@@ -3715,7 +3715,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U40" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V40" t="n">
         <v>223.7413102949914</v>
@@ -3724,7 +3724,7 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X40" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y40" t="n">
         <v>190.1883203232582</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>151.4356471531007</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D43" t="n">
-        <v>120.2191399893758</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E43" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F43" t="n">
-        <v>117.0247149940947</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>78.39701158502527</v>
+        <v>137.6294752301916</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S43" t="n">
         <v>161.3726923026053</v>
@@ -3952,7 +3952,7 @@
         <v>191.1526162473326</v>
       </c>
       <c r="U43" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V43" t="n">
         <v>223.7413102949914</v>
@@ -3961,10 +3961,10 @@
         <v>258.1266653077544</v>
       </c>
       <c r="X43" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y43" t="n">
-        <v>190.1883203232582</v>
+        <v>15.71514184780067</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4135,16 +4135,16 @@
         <v>151.4356471531007</v>
       </c>
       <c r="C46" t="n">
-        <v>78.39701158502584</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D46" t="n">
-        <v>120.2191399893758</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E46" t="n">
-        <v>118.0376296177326</v>
+        <v>118.0376296177325</v>
       </c>
       <c r="F46" t="n">
-        <v>117.0247149940947</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>60.53581964121068</v>
       </c>
       <c r="S46" t="n">
-        <v>161.3726923026053</v>
+        <v>161.3726923026052</v>
       </c>
       <c r="T46" t="n">
         <v>191.1526162473326</v>
       </c>
       <c r="U46" t="n">
-        <v>257.8155051767763</v>
+        <v>257.8155051767762</v>
       </c>
       <c r="V46" t="n">
         <v>223.7413102949914</v>
       </c>
       <c r="W46" t="n">
-        <v>258.1266653077544</v>
+        <v>254.1620841758733</v>
       </c>
       <c r="X46" t="n">
-        <v>197.3133223602006</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y46" t="n">
         <v>190.1883203232582</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2368.607930856721</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1978.468598880909</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>721.6740884059948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>573.5274298401787</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>573.5274298401787</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V4" t="n">
-        <v>573.5274298401787</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="W4" t="n">
-        <v>573.5274298401787</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="X4" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1589.347031634718</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1220.384514694307</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>862.1188160875561</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>476.3305634893118</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.086203674652</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1975.94687169884</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4659,34 +4659,34 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>640.3925742688267</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>385.7080860629399</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>385.7080860629399</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>385.7080860629399</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2090.6186503862</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X8" t="n">
-        <v>1717.15289212512</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>1540.921096014692</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5024,10 +5024,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1070.832524924162</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.86673817257</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2055.398642844495</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N11" t="n">
-        <v>2602.177459903277</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5069,16 +5069,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
         <v>3150.95552873011</v>
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>260.9043113423045</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5203,10 +5203,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>999.1036114208126</v>
+        <v>909.273154178341</v>
       </c>
       <c r="W13" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413804</v>
       </c>
       <c r="X13" t="n">
-        <v>481.6968904858347</v>
+        <v>391.8664332433631</v>
       </c>
       <c r="Y13" t="n">
-        <v>260.9043113423046</v>
+        <v>171.073854099833</v>
       </c>
     </row>
     <row r="14">
@@ -5255,49 +5255,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277727</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>785.665188117619</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366027</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973176</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161906</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549394</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494839</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763689</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N15" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.961311426848</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902951</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142066</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635546</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313401</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447817</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216074</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487872</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517386</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>391.8948606428723</v>
+        <v>399.0634049978488</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8948606428723</v>
+        <v>399.0634049978488</v>
       </c>
       <c r="D16" t="n">
-        <v>241.7782212305366</v>
+        <v>399.0634049978488</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>399.0634049978488</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>252.1734574999385</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>252.1734574999385</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1384.778648927267</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V16" t="n">
-        <v>1130.09416072138</v>
+        <v>909.2731541783395</v>
       </c>
       <c r="W16" t="n">
-        <v>840.6769906844198</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="X16" t="n">
-        <v>612.6874397864025</v>
+        <v>619.8559841413789</v>
       </c>
       <c r="Y16" t="n">
-        <v>391.8948606428723</v>
+        <v>399.0634049978488</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.163497542719</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1803.682313196073</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294614</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353396</v>
       </c>
       <c r="O17" t="n">
         <v>3482.142110232732</v>
@@ -5583,7 +5583,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5592,16 +5592,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N18" t="n">
         <v>1715.000032008795</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839442</v>
@@ -5671,13 +5671,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M19" t="n">
         <v>1005.387693892251</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074197</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.259539097266</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345674</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1622.425187676632</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O20" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5820,7 +5820,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5829,16 +5829,16 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008795</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>613.633048673836</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>613.633048673836</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>463.5164092615003</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>315.603315679107</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811967</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811967</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>168.7133681811967</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5923,37 +5923,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q22" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>841.6225995718534</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>613.633048673836</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>613.633048673836</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5990,43 +5990,43 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E24" t="n">
         <v>487.9678785494859</v>
@@ -6057,7 +6057,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>210.2179684131226</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N25" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1780.962769867859</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T25" t="n">
-        <v>1559.196154437385</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413796</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.8664332433623</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>391.8664332433623</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,19 +6224,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
         <v>3482.142110232732</v>
@@ -6257,19 +6257,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
@@ -6303,13 +6303,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,7 +6333,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447819</v>
@@ -6342,13 +6342,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6382,52 +6382,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1918.58487523584</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1726.898991062666</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1726.898991062666</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.79612418831</v>
+        <v>1420.209926975365</v>
       </c>
       <c r="V28" t="n">
-        <v>1183.111635982423</v>
+        <v>1165.525438769478</v>
       </c>
       <c r="W28" t="n">
-        <v>893.6944659454626</v>
+        <v>876.1082687325173</v>
       </c>
       <c r="X28" t="n">
-        <v>665.7049150474453</v>
+        <v>648.1187178345</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>427.3261386909699</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2979.169639353395</v>
+        <v>3070.887536710052</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839437</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839437</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839437</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6619,52 +6619,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927022</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1657.456397634098</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1368.353530759742</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1113.669042553855</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>824.2518725168941</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>596.2623216188767</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6698,25 +6698,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563072</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1898.858917622689</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M32" t="n">
-        <v>2432.390822294613</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N32" t="n">
-        <v>2979.169639353395</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3763.957685256236</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188666</v>
@@ -6725,25 +6725,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6768,7 +6768,7 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6780,10 +6780,10 @@
         <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6792,7 +6792,7 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>472.4728289383107</v>
+        <v>625.4381290929598</v>
       </c>
       <c r="C34" t="n">
-        <v>332.2198106859963</v>
+        <v>625.4381290929598</v>
       </c>
       <c r="D34" t="n">
-        <v>332.2198106859963</v>
+        <v>625.4381290929598</v>
       </c>
       <c r="E34" t="n">
-        <v>332.2198106859963</v>
+        <v>506.2082001861595</v>
       </c>
       <c r="F34" t="n">
-        <v>332.2198106859963</v>
+        <v>388.0014173638417</v>
       </c>
       <c r="G34" t="n">
-        <v>281.7375690610062</v>
+        <v>248.9817454141532</v>
       </c>
       <c r="H34" t="n">
-        <v>164.2035469544566</v>
+        <v>131.4477233076036</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K34" t="n">
-        <v>400.8955892413027</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L34" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M34" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N34" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O34" t="n">
-        <v>1814.799887709818</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P34" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q34" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R34" t="n">
-        <v>2120.095131126209</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S34" t="n">
-        <v>1957.092411628628</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.008960873747</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U34" t="n">
-        <v>1503.589258674983</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V34" t="n">
-        <v>1277.587935144688</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W34" t="n">
-        <v>1016.85392978332</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X34" t="n">
-        <v>817.5475435608953</v>
+        <v>817.5475435608973</v>
       </c>
       <c r="Y34" t="n">
-        <v>625.4381290929579</v>
+        <v>625.4381290929598</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6941,22 +6941,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3484.372139114998</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320248</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,7 +7044,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7053,7 +7053,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>533.6201215051906</v>
+        <v>798.4469709921273</v>
       </c>
       <c r="C37" t="n">
-        <v>393.3671032528762</v>
+        <v>658.1939527398129</v>
       </c>
       <c r="D37" t="n">
-        <v>271.933628516133</v>
+        <v>658.1939527398129</v>
       </c>
       <c r="E37" t="n">
-        <v>271.933628516133</v>
+        <v>538.9640238330123</v>
       </c>
       <c r="F37" t="n">
-        <v>153.726845693815</v>
+        <v>420.7572410106945</v>
       </c>
       <c r="G37" t="n">
-        <v>153.726845693815</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H37" t="n">
-        <v>153.726845693815</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K37" t="n">
-        <v>400.8955892413028</v>
+        <v>400.8955892413029</v>
       </c>
       <c r="L37" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M37" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N37" t="n">
         <v>1487.357919090857</v>
@@ -7111,34 +7111,34 @@
         <v>1814.799887709819</v>
       </c>
       <c r="P37" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q37" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R37" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S37" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T37" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U37" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V37" t="n">
-        <v>1338.735227711568</v>
+        <v>1277.58793514469</v>
       </c>
       <c r="W37" t="n">
-        <v>1078.0012223502</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="X37" t="n">
-        <v>878.6948361277755</v>
+        <v>1016.853929783322</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.5854216598378</v>
+        <v>824.744515315384</v>
       </c>
     </row>
     <row r="38">
@@ -7154,46 +7154,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>301.7164587107651</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>956.4397908460646</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1407.474004094473</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>1941.005908766398</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089896</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468573</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7254,37 +7254,37 @@
         <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>533.6201215051906</v>
+        <v>472.472828938312</v>
       </c>
       <c r="C40" t="n">
-        <v>533.6201215051906</v>
+        <v>332.2198106859976</v>
       </c>
       <c r="D40" t="n">
-        <v>412.1866467684473</v>
+        <v>332.2198106859976</v>
       </c>
       <c r="E40" t="n">
-        <v>292.9567178616467</v>
+        <v>212.9898817791971</v>
       </c>
       <c r="F40" t="n">
-        <v>174.7499350393288</v>
+        <v>212.9898817791971</v>
       </c>
       <c r="G40" t="n">
-        <v>174.7499350393288</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7330,19 +7330,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>168.7960365938781</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K40" t="n">
-        <v>400.8955892413027</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L40" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883474</v>
       </c>
       <c r="M40" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N40" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O40" t="n">
         <v>1814.799887709819</v>
@@ -7351,31 +7351,31 @@
         <v>2075.519757842027</v>
       </c>
       <c r="Q40" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R40" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.095131126211</v>
       </c>
       <c r="S40" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.09241162863</v>
       </c>
       <c r="T40" t="n">
-        <v>1825.156253440627</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U40" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V40" t="n">
-        <v>1338.735227711568</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W40" t="n">
-        <v>1078.0012223502</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X40" t="n">
-        <v>878.6948361277753</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.5854216598377</v>
+        <v>625.4381290929591</v>
       </c>
     </row>
     <row r="41">
@@ -7391,16 +7391,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2915.526830679739</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3795.491481009194</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>533.6201215051905</v>
+        <v>801.6736629065525</v>
       </c>
       <c r="C43" t="n">
-        <v>533.6201215051905</v>
+        <v>661.4206446542382</v>
       </c>
       <c r="D43" t="n">
-        <v>412.1866467684473</v>
+        <v>539.9871699174951</v>
       </c>
       <c r="E43" t="n">
-        <v>292.9567178616469</v>
+        <v>420.7572410106945</v>
       </c>
       <c r="F43" t="n">
-        <v>174.749935039329</v>
+        <v>420.7572410106945</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>281.7375690610061</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>164.2035469544565</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>168.7960365938782</v>
+        <v>168.7960365938783</v>
       </c>
       <c r="K43" t="n">
-        <v>400.8955892413027</v>
+        <v>400.895589241303</v>
       </c>
       <c r="L43" t="n">
-        <v>745.567757388347</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M43" t="n">
-        <v>1117.837172686444</v>
+        <v>1117.837172686445</v>
       </c>
       <c r="N43" t="n">
-        <v>1487.357919090857</v>
+        <v>1487.357919090858</v>
       </c>
       <c r="O43" t="n">
-        <v>1814.799887709818</v>
+        <v>1814.799887709819</v>
       </c>
       <c r="P43" t="n">
-        <v>2075.519757842026</v>
+        <v>2075.519757842027</v>
       </c>
       <c r="Q43" t="n">
-        <v>2181.242423693089</v>
+        <v>2181.24242369309</v>
       </c>
       <c r="R43" t="n">
-        <v>2181.242423693089</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S43" t="n">
-        <v>2018.239704195508</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T43" t="n">
-        <v>1825.156253440626</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U43" t="n">
-        <v>1564.736551241863</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V43" t="n">
-        <v>1338.735227711568</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W43" t="n">
-        <v>1078.0012223502</v>
+        <v>1016.853929783321</v>
       </c>
       <c r="X43" t="n">
-        <v>878.6948361277753</v>
+        <v>817.5475435608967</v>
       </c>
       <c r="Y43" t="n">
-        <v>686.5854216598377</v>
+        <v>801.6736629065525</v>
       </c>
     </row>
     <row r="44">
@@ -7637,34 +7637,34 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811482</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542189</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q44" t="n">
         <v>4653.975400188666</v>
@@ -7701,52 +7701,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320232</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,22 +7755,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.6201215051916</v>
+        <v>476.4774563442525</v>
       </c>
       <c r="C46" t="n">
-        <v>454.4312209142562</v>
+        <v>336.2244380919381</v>
       </c>
       <c r="D46" t="n">
-        <v>332.9977461775129</v>
+        <v>214.7909633551949</v>
       </c>
       <c r="E46" t="n">
-        <v>213.7678172707123</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839442</v>
@@ -7810,13 +7810,13 @@
         <v>400.895589241303</v>
       </c>
       <c r="L46" t="n">
-        <v>745.5677573883474</v>
+        <v>745.5677573883472</v>
       </c>
       <c r="M46" t="n">
-        <v>1117.837172686445</v>
+        <v>1117.837172686444</v>
       </c>
       <c r="N46" t="n">
-        <v>1487.357919090858</v>
+        <v>1487.357919090857</v>
       </c>
       <c r="O46" t="n">
         <v>1814.799887709819</v>
@@ -7828,28 +7828,28 @@
         <v>2181.24242369309</v>
       </c>
       <c r="R46" t="n">
-        <v>2181.24242369309</v>
+        <v>2120.09513112621</v>
       </c>
       <c r="S46" t="n">
-        <v>2018.239704195509</v>
+        <v>1957.092411628629</v>
       </c>
       <c r="T46" t="n">
-        <v>1825.156253440628</v>
+        <v>1764.008960873748</v>
       </c>
       <c r="U46" t="n">
-        <v>1564.736551241864</v>
+        <v>1503.589258674984</v>
       </c>
       <c r="V46" t="n">
-        <v>1338.735227711569</v>
+        <v>1277.587935144689</v>
       </c>
       <c r="W46" t="n">
-        <v>1078.001222350201</v>
+        <v>1020.858557189262</v>
       </c>
       <c r="X46" t="n">
-        <v>878.6948361277764</v>
+        <v>821.5521709668371</v>
       </c>
       <c r="Y46" t="n">
-        <v>686.5854216598389</v>
+        <v>629.4427564988996</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8690,28 +8690,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>288.0478149561032</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>226.0494095077361</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8936,10 +8936,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>353.7642348290884</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,19 +9161,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>96.1379842693093</v>
       </c>
       <c r="N17" t="n">
-        <v>344.7025836476837</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9404,22 +9404,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619502</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9638,25 +9638,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>82.70159106555684</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,22 +9872,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10118,22 +10118,22 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>344.7025836476834</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>294.8707872801663</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,13 +10346,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>344.7025836476847</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,13 +10361,13 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>249.451501837949</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10589,25 +10589,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476838</v>
+        <v>89.5245633896194</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>17.45080131651034</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>201.9664098701126</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,16 +11066,16 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>5.284192235662204</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476826</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>67.53663776704269</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>147.0909790483774</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86.06113650312955</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>129.6806438075622</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>71.67627119164564</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24145,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>23.93161001436387</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>105.0742887270137</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>150.0888768833851</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>16.14213605696571</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.55114770987228</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>253.6897617452264</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696598</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>202.3519294917598</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.8504880697912</v>
       </c>
       <c r="D34" t="n">
-        <v>120.2191399893758</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E34" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>117.0247149940947</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>87.65205602145147</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>32.4282654103843</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>125.4010782730765</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E37" t="n">
-        <v>118.0376296177326</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>137.6294752301916</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>10.37193424803498</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>60.53581964121075</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>197.3133223602005</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.8504880697913</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>120.2191399893757</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G40" t="n">
-        <v>137.6294752301916</v>
+        <v>21.37491637269693</v>
       </c>
       <c r="H40" t="n">
-        <v>37.96167030045928</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I40" t="n">
-        <v>67.95608738100151</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>60.53581964121075</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>151.4356471531007</v>
       </c>
       <c r="C43" t="n">
-        <v>138.8504880697913</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G43" t="n">
-        <v>59.23246364516638</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.3586818854842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>67.95608738100151</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>60.53581964121075</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>174.4731784754575</v>
       </c>
     </row>
     <row r="44">
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>60.45347648476542</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>117.0247149940946</v>
       </c>
       <c r="G46" t="n">
         <v>137.6294752301916</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3586818854842</v>
+        <v>116.3586818854841</v>
       </c>
       <c r="I46" t="n">
-        <v>67.95608738100148</v>
+        <v>67.95608738100145</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>60.53581964121071</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>3.964581131881047</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>692394.6160973815</v>
+        <v>692394.6160973813</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>692394.6160973813</v>
+        <v>692394.6160973812</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>738937.5928778546</v>
       </c>
       <c r="C2" t="n">
-        <v>738937.5928778546</v>
+        <v>738937.5928778551</v>
       </c>
       <c r="D2" t="n">
         <v>738937.5928778547</v>
       </c>
       <c r="E2" t="n">
-        <v>714747.2163965693</v>
+        <v>714747.2163965696</v>
       </c>
       <c r="F2" t="n">
-        <v>714747.21639657</v>
+        <v>714747.2163965695</v>
       </c>
       <c r="G2" t="n">
-        <v>714747.2163965702</v>
+        <v>714747.2163965696</v>
       </c>
       <c r="H2" t="n">
         <v>714747.21639657</v>
       </c>
       <c r="I2" t="n">
-        <v>714747.2163965703</v>
+        <v>714747.21639657</v>
       </c>
       <c r="J2" t="n">
-        <v>714747.21639657</v>
+        <v>714747.2163965697</v>
       </c>
       <c r="K2" t="n">
-        <v>714747.2163965699</v>
+        <v>714747.2163965701</v>
       </c>
       <c r="L2" t="n">
         <v>729370.2284004062</v>
       </c>
       <c r="M2" t="n">
-        <v>729370.2284004053</v>
+        <v>729370.2284004057</v>
       </c>
       <c r="N2" t="n">
-        <v>729370.2284004055</v>
+        <v>729370.2284004061</v>
       </c>
       <c r="O2" t="n">
-        <v>729370.2284004061</v>
+        <v>729370.2284004056</v>
       </c>
       <c r="P2" t="n">
-        <v>729370.2284004063</v>
+        <v>729370.228400406</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>22717.06642306894</v>
+        <v>22717.06642306949</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3.026689228136092e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="F4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="G4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="L4" t="n">
+        <v>27492.3010319063</v>
+      </c>
+      <c r="M4" t="n">
+        <v>27492.30103190629</v>
+      </c>
+      <c r="N4" t="n">
+        <v>27492.30103190629</v>
+      </c>
+      <c r="O4" t="n">
         <v>27492.30103190628</v>
       </c>
-      <c r="M4" t="n">
-        <v>27492.30103190625</v>
-      </c>
-      <c r="N4" t="n">
-        <v>27492.30103190626</v>
-      </c>
-      <c r="O4" t="n">
-        <v>27492.30103190627</v>
-      </c>
       <c r="P4" t="n">
-        <v>27492.30103190626</v>
+        <v>27492.3010319063</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,13 +26479,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371366</v>
@@ -26494,7 +26494,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>98770.76957511491</v>
@@ -26509,7 +26509,7 @@
         <v>98770.76957511491</v>
       </c>
       <c r="P5" t="n">
-        <v>98770.76957511493</v>
+        <v>98770.76957511491</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-117238.0512572272</v>
+        <v>-117238.0512572273</v>
       </c>
       <c r="C6" t="n">
-        <v>472729.8279573172</v>
+        <v>472729.8279573176</v>
       </c>
       <c r="D6" t="n">
-        <v>472729.8279573173</v>
+        <v>472729.8279573176</v>
       </c>
       <c r="E6" t="n">
-        <v>-127162.208169741</v>
+        <v>-127229.4036599666</v>
       </c>
       <c r="F6" t="n">
-        <v>600215.2058236664</v>
+        <v>600148.0103334405</v>
       </c>
       <c r="G6" t="n">
-        <v>600215.2058236666</v>
+        <v>600148.0103334403</v>
       </c>
       <c r="H6" t="n">
-        <v>600215.2058236664</v>
+        <v>600148.0103334406</v>
       </c>
       <c r="I6" t="n">
-        <v>600215.2058236668</v>
+        <v>600148.0103334403</v>
       </c>
       <c r="J6" t="n">
-        <v>423791.9866310735</v>
+        <v>423724.7911408474</v>
       </c>
       <c r="K6" t="n">
-        <v>600215.2058236662</v>
+        <v>600148.0103334407</v>
       </c>
       <c r="L6" t="n">
-        <v>580390.091370316</v>
+        <v>580363.5153578782</v>
       </c>
       <c r="M6" t="n">
-        <v>473464.8429544391</v>
+        <v>473438.2669420023</v>
       </c>
       <c r="N6" t="n">
-        <v>603107.1577933843</v>
+        <v>603080.5817809475</v>
       </c>
       <c r="O6" t="n">
-        <v>603107.1577933849</v>
+        <v>603080.581780947</v>
       </c>
       <c r="P6" t="n">
-        <v>603107.1577933847</v>
+        <v>603080.5817809474</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M2" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N2" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O2" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P2" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26762,7 +26762,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,19 +26978,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>44.47535211858258</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.73240311247927</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272689008</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>2.496509910248562</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.5945811832545</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874007</v>
       </c>
       <c r="U7" t="n">
-        <v>199.4228284037463</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110313</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>244.9404883442853</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106058</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y34" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y37" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y40" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y43" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="C46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="D46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="E46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="F46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="G46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="H46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="I46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="J46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="K46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="L46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="M46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="N46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="O46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="P46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="R46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="S46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="T46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="U46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="V46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="W46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="X46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
       <c r="Y46" t="n">
-        <v>28.39633302883658</v>
+        <v>28.39633302883665</v>
       </c>
     </row>
   </sheetData>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683794</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987485</v>
@@ -32339,10 +32339,10 @@
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.647816683794</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353143</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,22 +34933,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>625.2391015115037</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>778.3512449206476</v>
       </c>
       <c r="O11" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
         <v>347.6333793934838</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407862</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>906.0660702419995</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.336699126565</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427823</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>635.0591000995357</v>
       </c>
       <c r="N17" t="n">
-        <v>897.0044190605952</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004607</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
         <v>159.233896612727</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>558.7186215464214</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248953</v>
       </c>
       <c r="O20" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509642</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.109295463624</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152071</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004607</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>635.0034264784683</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>125.3296184152072</v>
@@ -36592,22 +36592,22 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>883.6236994779102</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>802.9237881683853</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>800.2926980400166</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>648.2134880573209</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.97474964190278</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K34" t="n">
-        <v>234.4439925731561</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L34" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M34" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N34" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O34" t="n">
-        <v>330.7494632514763</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P34" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37309,25 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359029</v>
+        <v>597.5775642778385</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.97474964190283</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K37" t="n">
         <v>234.4439925731562</v>
@@ -37470,19 +37470,19 @@
         <v>348.1537051990347</v>
       </c>
       <c r="M37" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N37" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963768</v>
       </c>
       <c r="O37" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P37" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q37" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>208.2378022852229</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>740.8875257003393</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
@@ -37561,10 +37561,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.9747496419028</v>
+        <v>73.9747496419029</v>
       </c>
       <c r="K40" t="n">
         <v>234.4439925731562</v>
       </c>
       <c r="L40" t="n">
-        <v>348.1537051990347</v>
+        <v>348.1537051990348</v>
       </c>
       <c r="M40" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N40" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O40" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P40" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q40" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37786,16 +37786,16 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>404.0461784550341</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.9747496419028</v>
+        <v>73.97474964190287</v>
       </c>
       <c r="K43" t="n">
-        <v>234.4439925731561</v>
+        <v>234.4439925731562</v>
       </c>
       <c r="L43" t="n">
         <v>348.1537051990347</v>
       </c>
       <c r="M43" t="n">
-        <v>376.0297124223204</v>
+        <v>376.0297124223205</v>
       </c>
       <c r="N43" t="n">
-        <v>373.2532791963766</v>
+        <v>373.2532791963767</v>
       </c>
       <c r="O43" t="n">
         <v>330.7494632514764</v>
       </c>
       <c r="P43" t="n">
-        <v>263.353404173947</v>
+        <v>263.3534041739471</v>
       </c>
       <c r="Q43" t="n">
-        <v>106.7905715667302</v>
+        <v>106.7905715667303</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923324</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
-        <v>538.921115830227</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908547</v>
+        <v>466.2986239864146</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609554</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.97474964190289</v>
+        <v>73.9747496419029</v>
       </c>
       <c r="K46" t="n">
         <v>234.4439925731562</v>
@@ -38187,7 +38187,7 @@
         <v>373.2532791963768</v>
       </c>
       <c r="O46" t="n">
-        <v>330.7494632514765</v>
+        <v>330.7494632514764</v>
       </c>
       <c r="P46" t="n">
         <v>263.3534041739471</v>
